--- a/jumia.xlsx
+++ b/jumia.xlsx
@@ -5,24 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\coding\sql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\dbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D9C131-DFC1-4D13-B302-C0BFD8F8795D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52425F21-92DE-421D-99EE-64573F6354E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C2801357-80F3-4ACC-86D3-E84F327DE64C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="907" activeTab="6" xr2:uid="{C2801357-80F3-4ACC-86D3-E84F327DE64C}"/>
   </bookViews>
   <sheets>
-    <sheet name="jumia" sheetId="11" r:id="rId1"/>
-    <sheet name="customers" sheetId="1" r:id="rId2"/>
-    <sheet name="accounts" sheetId="2" r:id="rId3"/>
-    <sheet name="products" sheetId="3" r:id="rId4"/>
-    <sheet name="orders" sheetId="4" r:id="rId5"/>
-    <sheet name="cart" sheetId="5" r:id="rId6"/>
-    <sheet name="payment" sheetId="6" r:id="rId7"/>
-    <sheet name="pay options" sheetId="7" r:id="rId8"/>
-    <sheet name="delivery" sheetId="8" r:id="rId9"/>
-    <sheet name="deliver options" sheetId="9" r:id="rId10"/>
+    <sheet name="branches" sheetId="11" r:id="rId1"/>
+    <sheet name="suppliers" sheetId="9" r:id="rId2"/>
+    <sheet name="products" sheetId="3" r:id="rId3"/>
+    <sheet name="orders" sheetId="4" r:id="rId4"/>
+    <sheet name="customers" sheetId="1" r:id="rId5"/>
+    <sheet name="address" sheetId="2" r:id="rId6"/>
+    <sheet name="delivery" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
-  <si>
-    <t>number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>cust_name</t>
   </si>
@@ -48,15 +42,6 @@
     <t>doe</t>
   </si>
   <si>
-    <t>jane</t>
-  </si>
-  <si>
-    <t>acc_num</t>
-  </si>
-  <si>
-    <t>acc_email</t>
-  </si>
-  <si>
     <t>phone_num</t>
   </si>
   <si>
@@ -66,9 +51,6 @@
     <t>doe@gmail.com</t>
   </si>
   <si>
-    <t>jane@gmail.com</t>
-  </si>
-  <si>
     <t>prod_id</t>
   </si>
   <si>
@@ -84,112 +66,133 @@
     <t>huawei</t>
   </si>
   <si>
-    <t>account</t>
-  </si>
-  <si>
-    <t>order_num</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>ltel</t>
-  </si>
-  <si>
-    <t>infinix</t>
-  </si>
-  <si>
-    <t>tecno</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account </t>
-  </si>
-  <si>
-    <t>abc12</t>
-  </si>
-  <si>
-    <t>ghi09</t>
-  </si>
-  <si>
-    <t>jnk12</t>
-  </si>
-  <si>
-    <t>yui00</t>
-  </si>
-  <si>
-    <t>32hyi</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bank</t>
-  </si>
-  <si>
     <t>mpesa</t>
   </si>
   <si>
-    <t>on delivery</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>num</t>
-  </si>
-  <si>
-    <t>deliv_opt</t>
-  </si>
-  <si>
-    <t>home delivery</t>
-  </si>
-  <si>
-    <t>pick up</t>
-  </si>
-  <si>
-    <t>pay_opt</t>
-  </si>
-  <si>
-    <t>jumia_db</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>employees</t>
-  </si>
-  <si>
     <t>cust_id</t>
   </si>
   <si>
-    <t>pji7</t>
-  </si>
-  <si>
-    <t>kli9</t>
-  </si>
-  <si>
-    <t>uko7</t>
-  </si>
-  <si>
-    <t>delivery_address</t>
-  </si>
-  <si>
     <t>nairobi</t>
   </si>
   <si>
-    <t>mombasa</t>
-  </si>
-  <si>
-    <t>kisumu</t>
+    <t>country_name</t>
+  </si>
+  <si>
+    <t>kenya</t>
+  </si>
+  <si>
+    <t>nigeria</t>
+  </si>
+  <si>
+    <t>branch_id</t>
+  </si>
+  <si>
+    <t>cust_email</t>
+  </si>
+  <si>
+    <t>address_id</t>
+  </si>
+  <si>
+    <t>address_details</t>
+  </si>
+  <si>
+    <t>ken254</t>
+  </si>
+  <si>
+    <t>ngr276</t>
+  </si>
+  <si>
+    <t>ad1</t>
+  </si>
+  <si>
+    <t>ad2</t>
+  </si>
+  <si>
+    <t>abuja</t>
+  </si>
+  <si>
+    <t>supp_id</t>
+  </si>
+  <si>
+    <t>farm07</t>
+  </si>
+  <si>
+    <t>retail02</t>
+  </si>
+  <si>
+    <t>supp_name</t>
+  </si>
+  <si>
+    <t>wazito retailers</t>
+  </si>
+  <si>
+    <t>da farms</t>
+  </si>
+  <si>
+    <t>10 ksh</t>
+  </si>
+  <si>
+    <t>20 ksh</t>
+  </si>
+  <si>
+    <t>30 ksh</t>
+  </si>
+  <si>
+    <t>app1</t>
+  </si>
+  <si>
+    <t>sam2</t>
+  </si>
+  <si>
+    <t>hua3</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>tot_price</t>
+  </si>
+  <si>
+    <t>60 ksh</t>
+  </si>
+  <si>
+    <t>del_id</t>
+  </si>
+  <si>
+    <t>nai047</t>
+  </si>
+  <si>
+    <t>abuj902</t>
+  </si>
+  <si>
+    <t>order_date</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>bank</t>
   </si>
 </sst>
 </file>
@@ -234,9 +237,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -555,33 +559,33 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScale="256" zoomScaleNormal="256" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -589,91 +593,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8F3D37-DC1D-4F0D-93AB-D28E761BEF67}">
-  <dimension ref="F1:G3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="262" zoomScaleNormal="262" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662009BB-378E-400A-9016-7F62E8B85081}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="256" zoomScaleNormal="256" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+    <sheetView zoomScale="262" zoomScaleNormal="262" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AD4001-A2F7-4527-AFC9-9E0A85DD7A91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D66ECD-D14A-442A-8CFF-095AEC47657A}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="256" zoomScaleNormal="256" workbookViewId="0">
@@ -691,164 +651,75 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>123</v>
+      <c r="A2" t="s">
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>712345</v>
+      <c r="C2">
+        <v>987</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>456</v>
+      <c r="A3" t="s">
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>723456</v>
+      <c r="C3">
+        <v>654</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>789</v>
+      <c r="A4" t="s">
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>734567</v>
+      <c r="C4">
+        <v>321</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{1610A23D-0F63-4918-A4B7-2530BEB3BDFA}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{14F16CC5-8CD8-4325-BDD6-264A3ADD0FD6}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{09025214-31FD-4E14-AC78-CB47A989334C}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D66ECD-D14A-442A-8CFF-095AEC47657A}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView zoomScale="256" zoomScaleNormal="256" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>123</v>
-      </c>
-      <c r="B2">
-        <v>987</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>654</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>321</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>456</v>
-      </c>
-      <c r="B6">
-        <v>120</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>130</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>140</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -856,71 +727,74 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4062CCC-9E89-45D5-B339-BD9D9E82C354}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="256" zoomScaleNormal="256" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>123</v>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C2">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44927</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C3">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>456</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7">
-        <v>130</v>
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44989</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -928,107 +802,124 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35EEF40-FDF6-49F4-A82B-A04FEF3425BC}">
-  <dimension ref="A1:E7"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662009BB-378E-400A-9016-7F62E8B85081}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="256" zoomScaleNormal="256" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>712345</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>723456</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{14F16CC5-8CD8-4325-BDD6-264A3ADD0FD6}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{1610A23D-0F63-4918-A4B7-2530BEB3BDFA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AD4001-A2F7-4527-AFC9-9E0A85DD7A91}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView zoomScale="256" zoomScaleNormal="256" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="C2">
-        <v>987</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>45678</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="C3">
-        <v>654</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>67890</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
-      </c>
-      <c r="C4">
-        <v>321</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>456</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6">
-        <v>654</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>12678</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7">
-        <v>130</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>32189</v>
       </c>
     </row>
   </sheetData>
@@ -1037,132 +928,46 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E705B847-CE0A-42DF-9D9F-88146122171C}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8F7E0E-06DC-4C45-831C-A4E85A701A4E}">
+  <dimension ref="E1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="256" zoomScaleNormal="256" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="256" zoomScaleNormal="256" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>123</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>123654</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>456</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>67890</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70C2219-55E1-4E6B-B49F-B26BCD37DA13}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView zoomScale="256" zoomScaleNormal="256" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8F7E0E-06DC-4C45-831C-A4E85A701A4E}">
-  <dimension ref="E1:F3"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="256" zoomScaleNormal="256" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
